--- a/データベース/テーブル設計書（ER図）.xlsx
+++ b/データベース/テーブル設計書（ER図）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId2"/>
@@ -526,9 +526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
+      <xdr:colOff>796680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -538,7 +538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1622160" cy="2110680"/>
+          <a:ext cx="1625040" cy="2109960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2465280" y="171720"/>
-          <a:ext cx="1661760" cy="3162600"/>
+          <a:off x="2472840" y="171720"/>
+          <a:ext cx="1672560" cy="3161880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,9 +1046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>812160</xdr:colOff>
+      <xdr:colOff>811440</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1057,8 +1057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4928760" y="38160"/>
-          <a:ext cx="1657440" cy="1337040"/>
+          <a:off x="4947840" y="38160"/>
+          <a:ext cx="1664280" cy="1336320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:colOff>807120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1186,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924800" y="2122560"/>
-          <a:ext cx="1657080" cy="1337040"/>
+          <a:off x="4943880" y="2122560"/>
+          <a:ext cx="1663920" cy="1336320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,8 +1373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1650240" y="697680"/>
-          <a:ext cx="834120" cy="19440"/>
+          <a:off x="1657800" y="697680"/>
+          <a:ext cx="838080" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1414,8 +1414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4100760" y="2619720"/>
-          <a:ext cx="815760" cy="9720"/>
+          <a:off x="4115880" y="2619720"/>
+          <a:ext cx="819720" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1449,7 +1449,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1473,7 +1473,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.79296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.67"/>
@@ -1700,11 +1700,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -1862,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -1926,7 +1926,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6"/>
@@ -1943,7 +1943,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
@@ -1985,7 +1985,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -2106,11 +2106,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>

--- a/データベース/テーブル設計書（ER図）.xlsx
+++ b/データベース/テーブル設計書（ER図）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -56,175 +56,178 @@
     <t xml:space="preserve">会員ID</t>
   </si>
   <si>
+    <t xml:space="preserve">cID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auto increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氏名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cTell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cMail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cBday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cJdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cWdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items（資料テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBNコード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIGINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publication_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入荷日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrival_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸出日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rental_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返却日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸出会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rental_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">予約会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNER（管理者テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY（履歴テーブル)</t>
+  </si>
+  <si>
     <t xml:space="preserve">customer_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> auto increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氏名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電話番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_tell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leave_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Items（資料テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBNコード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publication_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入荷日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrival_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸出日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rental_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返却日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸出会員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rental_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">予約会員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reserve_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWNER（管理者テーブル)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理者ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owner_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owner_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTORY（履歴テーブル)</t>
   </si>
   <si>
     <t xml:space="preserve">document_id</t>
@@ -526,9 +529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>796680</xdr:colOff>
+      <xdr:colOff>796320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -538,7 +541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1625040" cy="2109960"/>
+          <a:ext cx="1626120" cy="2109600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,9 +748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,8 +759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2472840" y="171720"/>
-          <a:ext cx="1672560" cy="3161880"/>
+          <a:off x="2475360" y="171720"/>
+          <a:ext cx="1676160" cy="3161520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,9 +1049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>811440</xdr:colOff>
+      <xdr:colOff>811080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1057,8 +1060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4947840" y="38160"/>
-          <a:ext cx="1664280" cy="1336320"/>
+          <a:off x="4954320" y="38160"/>
+          <a:ext cx="1666080" cy="1335960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,9 +1178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
+      <xdr:colOff>806760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1186,8 +1189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943880" y="2122560"/>
-          <a:ext cx="1663920" cy="1336320"/>
+          <a:off x="4950360" y="2122560"/>
+          <a:ext cx="1665720" cy="1335960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,8 +1376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657800" y="697680"/>
-          <a:ext cx="838080" cy="19440"/>
+          <a:off x="1660320" y="697680"/>
+          <a:ext cx="839520" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1414,8 +1417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4115880" y="2619720"/>
-          <a:ext cx="819720" cy="9720"/>
+          <a:off x="4120920" y="2619720"/>
+          <a:ext cx="821160" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1449,7 +1452,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1467,13 +1470,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.67"/>
@@ -1582,11 +1585,9 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1595,10 +1596,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -1612,15 +1613,15 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -1629,56 +1630,37 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>255</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="9"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -1700,11 +1682,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -1717,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1750,10 +1732,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -1771,13 +1753,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
@@ -1788,13 +1770,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -1805,13 +1787,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -1822,13 +1804,13 @@
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
@@ -1839,13 +1821,13 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
@@ -1856,13 +1838,13 @@
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -1873,30 +1855,28 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
@@ -1905,13 +1885,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="6"/>
@@ -1920,35 +1900,35 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -1985,7 +1965,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -1995,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2028,10 +2008,10 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -2052,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -2068,10 +2048,10 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -2110,7 +2090,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>
@@ -2157,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -2171,30 +2151,30 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2203,13 +2183,13 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
